--- a/test.xlsx
+++ b/test.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="B2:C224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -421,10 +421,903 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>asdfasdfasfdas</t>
+    <row r="2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>반자동 아일렛 10mm 핀 전용 1000 개 펀칭기 모음</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>17,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>아크릴 투명 울타리 강아지 안전펜스 베란다 안전문</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>149,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1234YF 냉매 수입차 특수 차량용 친환경 냉매가스 5kg</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>286,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>이동식 시스템비계 조립식 선반 간이작업대 3미터</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>249,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1203님 문의건</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>47,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>PE 파이프 컷팅기 면취기 PVC 배관 트리머 절단기</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>60,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>모서리 보호대 스펀지 포장 완충재 코너 쿠션 패드</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>54,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>모니터 가방 24인치 27인치 보관케이스 컴퓨터 수납</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>35,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>캠핑 요강 이동식 변기 여성소변기 간이 화장실 휴대</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>13,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>긴 틈새테이블  사이드 바 쇼파 뒤 보조 폭좁은 선반</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>57,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>오디오 장비 캐비닛 노래방 룸 무대 공연 선반 10U</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>93,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>수입차 에어컨 냉매가스 차량용 신냉매 3kg 1234YF</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>168,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>약 수납함 약통정리함 미니 탕비실 책상 커피 정리함</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>23,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>아이스크림 모형 카페 목장 입구 간판 소품 150 1.5m</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>160,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>신발 밑창 발판 유치원 운동화 건물 빌딩 청소매트</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>53,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>냉장 작업대 냉동고 상업용 냉동고 냉장고</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>749,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>먼지없는톱 목공 테이블 원목 바닥 마루 목재 절단기</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>304,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>후크 고리사다리 일자형 접이식 슬라이딩 사다리 8m</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>282,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>일렉 기타 송수신기 악기 무선 트랜시버 3.5 yds150</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>81,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>일체형 무시동 에어컨 12V 24V 트럭 화물 포크레인</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>521,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>텃밭 물 호스릴 세트 세차 정원 마당 물청소 100미터</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>111,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>인조 초가지붕 오두막 원두막 가짜 지푸라기 10미터</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>75,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>산업용 공장 컴퓨터 보관함 조립형 캐비닛 서버실</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>454,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>자동 라벨링 기계 송장 라벨 가격표 바코드 리와인딩</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>75,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>자동 라벨 리와인더 기계 프린터용 스티커 감는기계</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>80,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>제전 작업대 바퀴있는 실험실 검사 테이블 검수대</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>228,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>골프 인조 잔디 롤 매트 옥상 미끄럼방지 2x15 15미터</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>179,200</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>카라반 수통 청수탱크 100리터 캠핑트레일러 오수통</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>66,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>공원 조명등 정원 조명 옥외 방수 엔틱 유럽풍 가로등</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>139,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>유럽식 가로등 3미터 정원등 마당 조명 카페 인테리어</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>100,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>자동 반죽롤러 제면기 파스타 국수 만두피 면뽑는기계</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>122,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>가정용 뚝배기 3인 4인 가족 가구 집들이 선물 세트</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>39,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>이동식 수리도구 카트 공구함 공구다이 작업대 보관함</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>258,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>와인 진열장 양주 보관함 와인병 거치대 랙 위스키</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>115,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>잔반수거통 음식물쓰레기통 업소용 스텐 음식물통</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>79,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>축구폴대 장대 축구 훈련 용품 V형 연습용 폴막대</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>47,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>이동식 무영등 자바라 보조등 시술 수술등 특수조명</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>111,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>호텔 카트 벨보이 캐리어 공항 리조트 밀차 웨건 짐</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>198,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>HDMI 무선 송수신기 세트 회의 수업 음성 영상 연장기</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>96,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>원목 나무 잡지 꽂이 복고풍 책장 수납 가판대  홀더</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>145,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>업소용 버터 슬라이스 스팸 절단기 커터 햄 치즈 두부</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>68,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>대형 물탱크 거치 믹서 교반기 블랜더 공장 약품 저수</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>174,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>철제 의자 식당 포차 포장마차 야외 편의점 체어 급식</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>50,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>세탁소용 보풀 제거기 방울 커터 스크래치 의류 관리</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>31,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>데스크탑가방 24인치 27인치 캐리어 사무실 이사 출장</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>45,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>스텐 실린더 타임캡슐 완전 밀폐  미래 편지보관 졸업</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>27,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>휴대용 가솔린 분무기 소독기 세차기 고압살수기 살포</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>236,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>풀업 수평바 문틀운동 전신 홈 트레이닝 피트니스</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>58,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>바닥 광고 프로젝터 조명 로고 매장 홍보 바닥빔 50w</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>88,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>전동 야채절단기 닭가슴살 분쇄기 찢는 기계 살코기</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>196,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>미용의자 회전 스툴 리프팅 의자 바퀴달린 피부 관리</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>32,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>원목 트롤리 차 서빙 선반 주방 엔틱 이동식 조리대</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>55,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>차량용 하부 반사경 검문 거울 정비소 미러 탐색 용접</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>70,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>대형견 겨울 방석 말라뮤트 침대 쿠션 강아지 개 애견</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>39,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>전동 페인트 스프레이건 고압 페인트 건 뿜칠 도색</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>84,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>접이식 수평기 코너 수평계 수평 측정 레벨 눈금자</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>21,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>공사장 손수레 카트 시멘트 운반 축사 농사 농업용</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>197,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>꽃 진열대 스탠드 꽃다발 거치대 꽃가게 매장 꽃집</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>115,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>하이볼디스펜서 하이볼기계 머신 위스키 소맥 제조기</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>36,300</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>대용량 액상 정량 주입기 정량기 소분기 저울 HD1790</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>563,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>미니 레이저각인기 각인 날인기 인쇄 DIY 금속 공예</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>270,100</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>불교용품 30cm 좌불상 불교 티벳 밀교 금강살타</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>246,400</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>착즙기 대용량 쥬서기 원액기 과일 주스 프레스 야채</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>123,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>코너 원목 책상 선반 우드 ㄱ자형 책꽂이 수납장 벽</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>56,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>틈새 책장 선반 테이블 침대 사이 뒤 사이드 얇은</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>53,000</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>괄사 마사지기 얼굴 바디 다이어트 림프순환 디톡</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>19,500</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>톤백 분리 수거 마대 자루 거치대 아파트 팬션 캠핑장</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>70,800</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>간이 증류기 소주 발효 10L 제조기 정제수 304 스텐</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>79,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>이동식 새장 앵무새 케이지 철제 투명 아크릴 대형</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>44,900</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>전기차 충전기 스탠드 거치대 야외 주차장 기둥 행거</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>51,600</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>반자동 아일렛 12mm 핀 전용 회색 1000 개 프레스기</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>19,200</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>반자동 아일렛 봉제 공예용 하도메 10mm 수선 똑딱이</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>145,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>업소용 전기 튀김기 자동 리프팅 6리터 치킨 돈까스</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>222,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>304 스텐 밀폐 대용량 냄비 뚜껑 키친 방습 방충 쌀통</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>51,700</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>두유 제조기 소형 미니 자동 다기능 1-2인용 두유기</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>70,200</t>
         </is>
       </c>
     </row>
